--- a/Protocols/HeadingDiscrimination-avi.xlsx
+++ b/Protocols/HeadingDiscrimination-avi.xlsx
@@ -591,9 +591,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1118,7 +1123,7 @@
         <v>56</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>1</v>
